--- a/mvp/меню 3.xlsx
+++ b/mvp/меню 3.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="борщ1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="борщ2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -422,10 +423,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -435,35 +436,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>кть людей</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>10</v>
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>борщ</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>на 1 людину</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>300</v>
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D2" t="n">
-        <v>424.8</v>
+        <v>637.1999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="1">
@@ -585,6 +590,34 @@
         <v>141.6</v>
       </c>
       <c r="I5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>рецепт борщ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>212.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>141.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,14 +764,262 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>борщ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>капуста</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>морква</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>цибуля</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>фасоля</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>буряк</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>олія</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>сіль</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>вода</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>борщ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>капуста</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>морква</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>цибуля</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>фасоля</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>буряк</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>олія</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>сіль</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>вода</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/mvp/меню 3.xlsx
+++ b/mvp/меню 3.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,6 +41,11 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -72,13 +77,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +432,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -436,27 +442,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>борщ</t>
-        </is>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>к-ть гостей</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>продукт</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>к-ть</t>
-        </is>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>загалом</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>450</v>
       </c>
       <c r="C2" t="n">
         <v>3.1</v>
@@ -640,9 +642,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>назва страви</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -652,12 +654,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -773,24 +775,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>назва страви</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>борщ</t>
+          <t>борщ1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -803,7 +805,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -813,7 +815,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +825,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -833,7 +835,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -843,7 +845,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -853,7 +855,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -863,7 +865,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +875,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -883,7 +885,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -906,24 +908,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>назва страви</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>борщ</t>
+          <t>борщ2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -936,7 +938,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +948,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -956,7 +958,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +968,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="7">
@@ -976,7 +978,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="8">
@@ -986,7 +988,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="9">
@@ -996,7 +998,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1006,7 +1008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11">
@@ -1016,7 +1018,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/меню 3.xlsx
+++ b/mvp/меню 3.xlsx
@@ -8,8 +8,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="борщ1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="борщ2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="борщ2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="борщ3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -766,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>борщ1</t>
+          <t>борщ2</t>
         </is>
       </c>
     </row>
@@ -796,96 +796,6 @@
         <is>
           <t>к-ть</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>картопля</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>капуста</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>морква</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>цибуля</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>фасоля</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>буряк</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>олія</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>сіль</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>вода</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,7 +825,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>борщ2</t>
+          <t>борщ3</t>
         </is>
       </c>
     </row>
@@ -929,96 +839,6 @@
         <is>
           <t>к-ть</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>картопля</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>капуста</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>морква</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>цибуля</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>фасоля</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>буряк</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>олія</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>сіль</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>вода</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/меню 3.xlsx
+++ b/mvp/меню 3.xlsx
@@ -8,8 +8,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="борщ2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="борщ3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="борщ1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="борщ2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>борщ2</t>
+          <t>борщ1</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>борщ3</t>
+          <t>борщ2</t>
         </is>
       </c>
     </row>
